--- a/Compare_variants/June-2024-MS_Revisions/Neut_assays/1-s2.0-S0092867423010760-mmc2.xlsx
+++ b/Compare_variants/June-2024-MS_Revisions/Neut_assays/1-s2.0-S0092867423010760-mmc2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmeijers/Dropbox/PhD_Matthijs/Corona_Neutralisation/Manuscript2/Cell_Final_Aug23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raharinirina/Documents/Immune_Waning/VASIL_Extra/Compare_variants/June-2024-MS_Revisions/Neut_assays/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB088A-1B44-D047-98AD-1B115BC1CEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003EABBE-95BD-5E46-9CC4-7A65CEC8E6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{85FD1985-61EA-464F-803C-5B04EF6CBCD4}"/>
+    <workbookView xWindow="82300" yWindow="12840" windowWidth="28800" windowHeight="17940" xr2:uid="{85FD1985-61EA-464F-803C-5B04EF6CBCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>References</t>
   </si>
@@ -266,6 +270,48 @@
   </si>
   <si>
     <t>BQ.1 RECOV</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Alexia inserted</t>
+  </si>
+  <si>
+    <t>(This study shows Pfizer FR for B.1.351/Beta and not B.1.1.7/Alpha)</t>
+  </si>
+  <si>
+    <t>No data table, just the GM values in Fig.1d</t>
+  </si>
+  <si>
+    <t>Source_data Fig 2</t>
+  </si>
+  <si>
+    <t>Supplementary PDF</t>
+  </si>
+  <si>
+    <t>Suplementary table S4 pdf (against Victoria variant)</t>
+  </si>
+  <si>
+    <t>Supplementary Table S1 pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suplementary table S7 pdf </t>
+  </si>
+  <si>
+    <t>Full data available upon Request, but 2.1 FR reported for Pfizer in text (Fig 4A data)</t>
+  </si>
+  <si>
+    <t>Fig 4b (used log2 as base because this gave the lowes GM closest to here)</t>
+  </si>
+  <si>
+    <t>No IC50 data provided as Table (plotdigitized Fig1D)</t>
+  </si>
+  <si>
+    <t>Only Omicron data as pdf (digitized Fig 1 for the others)</t>
+  </si>
+  <si>
+    <t>Full data available upon Request, but 37 FR reported for Pfizer in text (Digitized Fig 2a )</t>
   </si>
 </sst>
 </file>
@@ -417,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,9 +479,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -473,7 +519,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -579,7 +625,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -721,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C703AB0-C3D1-BB41-B7AC-F6D9E9F36081}">
-  <dimension ref="A1:AG102"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,7 +790,7 @@
     <col min="17" max="17" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -808,9 +854,12 @@
       <c r="W1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="15"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -823,11 +872,14 @@
       <c r="W2" s="5">
         <v>1</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -840,11 +892,14 @@
       <c r="W3" s="5">
         <v>2</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -857,11 +912,14 @@
       <c r="W4" s="5">
         <v>3</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -874,11 +932,14 @@
       <c r="W5" s="5">
         <v>4</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -891,11 +952,14 @@
       <c r="W6" s="5">
         <v>5</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -908,11 +972,14 @@
       <c r="W7" s="5">
         <v>6</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -925,11 +992,14 @@
       <c r="W8" s="5">
         <v>7</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -945,11 +1015,14 @@
       <c r="W9" s="5">
         <v>8</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -965,11 +1038,14 @@
       <c r="W10" s="5">
         <v>9</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="X10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -982,11 +1058,14 @@
       <c r="W11" s="5">
         <v>10</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="X11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -999,11 +1078,14 @@
       <c r="W12" s="5">
         <v>11</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="X12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1019,11 +1101,14 @@
       <c r="W13" s="5">
         <v>12</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1039,11 +1124,14 @@
       <c r="W14" s="5">
         <v>13</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="X14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1062,11 +1150,14 @@
       <c r="W15" s="5">
         <v>14</v>
       </c>
-      <c r="X15" s="6" t="s">
+      <c r="X15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1099,19 +1190,19 @@
       <c r="W16" s="5">
         <v>15</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="Y16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="W17" s="5">
         <v>16</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="Y17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -1123,11 +1214,11 @@
       <c r="W18" s="5">
         <v>17</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="Y18" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1191,11 +1282,11 @@
       <c r="W19" s="5">
         <v>18</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="Y19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1211,11 +1302,11 @@
       <c r="W20" s="5">
         <v>19</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="Y20" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1228,11 +1319,11 @@
       <c r="W21" s="5">
         <v>20</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="Y21" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
@@ -1245,11 +1336,11 @@
       <c r="W22" s="5">
         <v>21</v>
       </c>
-      <c r="X22" s="6" t="s">
+      <c r="Y22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -1265,11 +1356,11 @@
       <c r="W23" s="5">
         <v>22</v>
       </c>
-      <c r="X23" s="6" t="s">
+      <c r="Y23" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1285,11 +1376,11 @@
       <c r="W24" s="5">
         <v>23</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="Y24" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
@@ -1308,11 +1399,11 @@
       <c r="W25" s="5">
         <v>24</v>
       </c>
-      <c r="X25" s="6" t="s">
+      <c r="Y25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1328,11 +1419,11 @@
       <c r="W26" s="5">
         <v>25</v>
       </c>
-      <c r="X26" s="6" t="s">
+      <c r="Y26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
@@ -1351,11 +1442,11 @@
       <c r="W27" s="5">
         <v>26</v>
       </c>
-      <c r="X27" s="6" t="s">
+      <c r="Y27" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
@@ -1375,11 +1466,11 @@
       <c r="W28">
         <v>27</v>
       </c>
-      <c r="X28" s="6" t="s">
+      <c r="Y28" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -1432,11 +1523,11 @@
       <c r="W29">
         <v>28</v>
       </c>
-      <c r="X29" s="6" t="s">
+      <c r="Y29" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -1462,11 +1553,11 @@
       <c r="W30">
         <v>29</v>
       </c>
-      <c r="X30" s="6" t="s">
+      <c r="Y30" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -1486,11 +1577,11 @@
       <c r="W31">
         <v>30</v>
       </c>
-      <c r="X31" s="6" t="s">
+      <c r="Y31" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -1513,11 +1604,11 @@
       <c r="W32">
         <v>31</v>
       </c>
-      <c r="X32" s="6" t="s">
+      <c r="Y32" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
@@ -1549,11 +1640,11 @@
       <c r="W33">
         <v>32</v>
       </c>
-      <c r="X33" s="6" t="s">
+      <c r="Y33" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
@@ -1582,11 +1673,11 @@
       <c r="W34">
         <v>33</v>
       </c>
-      <c r="X34" s="6" t="s">
+      <c r="Y34" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
@@ -1648,19 +1739,19 @@
       <c r="W35">
         <v>34</v>
       </c>
-      <c r="X35" s="6" t="s">
+      <c r="Y35" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="V36" s="6"/>
       <c r="W36" s="16">
         <v>35</v>
       </c>
-      <c r="X36" s="10" t="s">
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
@@ -1669,8 +1760,9 @@
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
       <c r="AG36" s="10"/>
-    </row>
-    <row r="37" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH36" s="10"/>
+    </row>
+    <row r="37" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
@@ -1679,7 +1771,7 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -1741,7 +1833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>24</v>
       </c>
@@ -1772,7 +1864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
@@ -1789,7 +1881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>24</v>
       </c>
@@ -1800,7 +1892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1923,7 @@
       <c r="T43" s="10"/>
       <c r="U43" s="11"/>
     </row>
-    <row r="46" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -1840,7 +1932,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1902,7 +1994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>25</v>
       </c>
